--- a/biology/Zoologie/Echinarachnius/Echinarachnius.xlsx
+++ b/biology/Zoologie/Echinarachnius/Echinarachnius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinarachnius sont un genre d'oursins plats (clypéastéroïdes), le seul actuel de la famille des Echinarachniidae. Les clypéastéroïdes sont appelés en anglais sand dollar (dollars des sables) du fait de leur ressemblance avec une pièce (plats et ronds).
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins plats d'allure caractéristique, de forme discoïdale et couverts de petites radioles formant un tapis velouté.
 Les contreforts internes sont bien développés, et prennent la forme de patches étoilés aux ambulacres, et de barres adradiales aux interambulacres.
@@ -519,8 +533,8 @@
 Le disque basicoronal est pentastellé, avec des éléments interambulacraires étirés.
 Le périprocte est marginal.
 Les pétales sont bien développés, non fermés au bout. 
-Les sillons nourriciers sont formés d'un tronc perradial qui s'étend jusqu'à la marge[3].
-Ce genre est apparue au Miocène, et on le retrouve principalement dans le Pacifique nord (et une espèce s'étend jusqu'en Atlantique nord)[3].
+Les sillons nourriciers sont formés d'un tronc perradial qui s'étend jusqu'à la marge.
+Ce genre est apparue au Miocène, et on le retrouve principalement dans le Pacifique nord (et une espèce s'étend jusqu'en Atlantique nord).
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (25 avril 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (25 avril 2018) :
 Echinarachnius asiaticus Michelin, 1859 -- Pacifique nord-ouest
 Echinarachnius parma (Lamarck, 1816) -- Pacifique nord-est et Atlantique nord-ouest
 Echinarachnius alaskensis Durham, 1957 †
